--- a/summarydataLosAngelesPossibleCase.xlsx
+++ b/summarydataLosAngelesPossibleCase.xlsx
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>18</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>18</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>18</v>
@@ -640,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>0</v>
